--- a/Att.xlsx
+++ b/Att.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A4C41D-0714-4686-AF00-B393A9092201}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4489A0F-5C16-445A-8F8F-84CC34A21971}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="99">
   <si>
     <t>novin.patrick</t>
   </si>
@@ -1972,7 +1972,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2044,6 +2044,9 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
